--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/42.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/42.xlsx
@@ -479,13 +479,13 @@
         <v>0.004604348503016414</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.605345922722214</v>
+        <v>-1.603717599941229</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06153875271609256</v>
+        <v>0.06298370226944659</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1870634013212594</v>
+        <v>-0.1872444135202089</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.04976485044803816</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.540660032913241</v>
+        <v>-1.538689360973373</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0874754397968853</v>
+        <v>0.08900538638278957</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1884044656126075</v>
+        <v>-0.1884564082436105</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1010140615140846</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.64694567407907</v>
+        <v>-1.645556602204522</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1002611971192108</v>
+        <v>0.1018147539919346</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1860812133895677</v>
+        <v>-0.1862071349192718</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1537739602879477</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.695190934166058</v>
+        <v>-1.693253316627737</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1427581393752081</v>
+        <v>0.1445289108866713</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.216988652855428</v>
+        <v>-0.2170988341939191</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.2122773107557935</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.781750180694186</v>
+        <v>-1.780691652835111</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2306025725158782</v>
+        <v>0.2331131330143527</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2659674058529415</v>
+        <v>-0.2662491552756543</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.2757108858352084</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.708501626865337</v>
+        <v>-1.707896416513197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3042887036604485</v>
+        <v>0.3069141675547781</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2767698990824282</v>
+        <v>-0.2770563705625049</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.3417369445315478</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.538795607264061</v>
+        <v>-1.538951435157069</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3748110563712045</v>
+        <v>0.3771736590722769</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2793276801545418</v>
+        <v>-0.2800013603384585</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.4054876473878706</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.1826973913566</v>
+        <v>-1.183946375529352</v>
       </c>
       <c r="F9" t="n">
-        <v>0.404955096563234</v>
+        <v>0.4070674302240195</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2750148677621779</v>
+        <v>-0.2756366053150917</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.4640801819756624</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7849419723943553</v>
+        <v>-0.7864451606551974</v>
       </c>
       <c r="F10" t="n">
-        <v>0.443849109050574</v>
+        <v>0.446162917158886</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2356171691560217</v>
+        <v>-0.2364010306784294</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.5172301369029476</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2591896795166208</v>
+        <v>-0.2604363026606909</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4150807615705613</v>
+        <v>0.4174150319274503</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1777389120466741</v>
+        <v>-0.1786770274429693</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.5688204554206011</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3122658325672004</v>
+        <v>0.3115228955419465</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2888397059848823</v>
+        <v>0.2909803719898512</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1237657963772735</v>
+        <v>-0.124752706366329</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.6239669101225169</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8949283607946825</v>
+        <v>0.8941807017120647</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09338588159736938</v>
+        <v>0.09494573454657837</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01033253438161814</v>
+        <v>-0.01131787035155237</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6879569723845793</v>
       </c>
       <c r="E14" t="n">
-        <v>1.599028038249634</v>
+        <v>1.599454597431506</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01197289058633391</v>
+        <v>0.01441262022434997</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08728813152145051</v>
+        <v>0.08663019152874683</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7660136713761385</v>
       </c>
       <c r="E15" t="n">
-        <v>2.264324996326281</v>
+        <v>2.26582503654888</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1309039730923721</v>
+        <v>-0.1281573097257024</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2042928429033372</v>
+        <v>0.2036396249679974</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8613085135257023</v>
       </c>
       <c r="E16" t="n">
-        <v>2.865088744448721</v>
+        <v>2.866900440457338</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2571214183912317</v>
+        <v>-0.2532178509704059</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3079876485955051</v>
+        <v>0.3070416631036034</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9741801236107034</v>
       </c>
       <c r="E17" t="n">
-        <v>3.401800932468072</v>
+        <v>3.403815676943337</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3696795257554439</v>
+        <v>-0.3639563922303946</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3931106026754463</v>
+        <v>0.3921551730688168</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.103286630840789</v>
       </c>
       <c r="E18" t="n">
-        <v>3.874622110334707</v>
+        <v>3.876499915146419</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5487556811858231</v>
+        <v>-0.5424485865667713</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4896829718437288</v>
+        <v>0.488192375735857</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.250622122405118</v>
       </c>
       <c r="E19" t="n">
-        <v>4.250408157411397</v>
+        <v>4.252013656915124</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7505528026321778</v>
+        <v>-0.7436460067279104</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6116930640313516</v>
+        <v>0.6098797940036131</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.414665547838178</v>
       </c>
       <c r="E20" t="n">
-        <v>4.526033071723239</v>
+        <v>4.526772860710251</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9585484113782146</v>
+        <v>-0.950588596681797</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7181549953387661</v>
+        <v>0.7165180154526135</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.589290905621055</v>
       </c>
       <c r="E21" t="n">
-        <v>4.734546532760184</v>
+        <v>4.734489868071817</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.07940002549256</v>
+        <v>-1.070501308390287</v>
       </c>
       <c r="G21" t="n">
-        <v>0.86119870504433</v>
+        <v>0.8597820878351595</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.762785699480447</v>
       </c>
       <c r="E22" t="n">
-        <v>4.881270299171349</v>
+        <v>4.880687912096468</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.247338421620616</v>
+        <v>-1.237785699573442</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9623672100468105</v>
+        <v>0.9606641213575632</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.925234614190897</v>
       </c>
       <c r="E23" t="n">
-        <v>4.92759682994947</v>
+        <v>4.925800874132067</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.498377157257741</v>
+        <v>-1.489470570059861</v>
       </c>
       <c r="G23" t="n">
-        <v>1.015657201417567</v>
+        <v>1.013801432873553</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.0697382206426</v>
       </c>
       <c r="E24" t="n">
-        <v>4.977334260163451</v>
+        <v>4.97473083253682</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.706279898875621</v>
+        <v>-1.698062732052871</v>
       </c>
       <c r="G24" t="n">
-        <v>1.112394842593585</v>
+        <v>1.110831841606134</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.19325089938997</v>
       </c>
       <c r="E25" t="n">
-        <v>4.943675435273557</v>
+        <v>4.940212593206696</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.867641256105322</v>
+        <v>-1.859148635936344</v>
       </c>
       <c r="G25" t="n">
-        <v>1.159664210825367</v>
+        <v>1.158006768690637</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.293897208526146</v>
       </c>
       <c r="E26" t="n">
-        <v>4.931922234494805</v>
+        <v>4.9282862503246</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.929567103385094</v>
+        <v>-1.92123660718561</v>
       </c>
       <c r="G26" t="n">
-        <v>1.188885875812314</v>
+        <v>1.186952980331357</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.370463448249253</v>
       </c>
       <c r="E27" t="n">
-        <v>4.837471643102035</v>
+        <v>4.833867139314258</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.016251484433365</v>
+        <v>-2.008237366077263</v>
       </c>
       <c r="G27" t="n">
-        <v>1.208978229895717</v>
+        <v>1.207169681925343</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.420824087967352</v>
       </c>
       <c r="E28" t="n">
-        <v>4.720171016125344</v>
+        <v>4.716199765882303</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.081499299068643</v>
+        <v>-2.073939285229036</v>
       </c>
       <c r="G28" t="n">
-        <v>1.197358820742275</v>
+        <v>1.195732858989972</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.442180832773508</v>
       </c>
       <c r="E29" t="n">
-        <v>4.597358174185858</v>
+        <v>4.593053231889101</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.174637158514247</v>
+        <v>-2.168387515593123</v>
       </c>
       <c r="G29" t="n">
-        <v>1.162624940792533</v>
+        <v>1.16095175846659</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.43527457234645</v>
       </c>
       <c r="E30" t="n">
-        <v>4.493724755239421</v>
+        <v>4.488960199359244</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.177142209945797</v>
+        <v>-2.171326209292591</v>
       </c>
       <c r="G30" t="n">
-        <v>1.115868702794296</v>
+        <v>1.113899604873549</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.401005351815785</v>
       </c>
       <c r="E31" t="n">
-        <v>4.306422775881124</v>
+        <v>4.301606277369944</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.141425355054803</v>
+        <v>-2.136282247575953</v>
       </c>
       <c r="G31" t="n">
-        <v>1.04954583309917</v>
+        <v>1.047786079721556</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.342669231180159</v>
       </c>
       <c r="E32" t="n">
-        <v>4.12076879454283</v>
+        <v>4.115895631343283</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.059596035986183</v>
+        <v>-2.054299461643006</v>
       </c>
       <c r="G32" t="n">
-        <v>1.022548257130621</v>
+        <v>1.020835724326646</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.263235874203097</v>
       </c>
       <c r="E33" t="n">
-        <v>3.904851147559287</v>
+        <v>3.899379857093646</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.003542067038423</v>
+        <v>-1.998616174198313</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9406410241154971</v>
+        <v>0.9388261800686374</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.166546568474808</v>
       </c>
       <c r="E34" t="n">
-        <v>3.690715290221056</v>
+        <v>3.684933917988519</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.904134102423118</v>
+        <v>-1.898941413341947</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8498248428738113</v>
+        <v>0.8478100983985465</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.056360691491441</v>
       </c>
       <c r="E35" t="n">
-        <v>3.451697338613304</v>
+        <v>3.445684585569935</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.840426465498033</v>
+        <v>-1.835214101177846</v>
       </c>
       <c r="G35" t="n">
-        <v>0.780311436419809</v>
+        <v>0.7781550302236271</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.937626069773525</v>
       </c>
       <c r="E36" t="n">
-        <v>3.21767532369656</v>
+        <v>3.211404431517298</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.758694735614934</v>
+        <v>-1.753311590220086</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7272481038025203</v>
+        <v>0.7252585436331962</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.813141893118706</v>
       </c>
       <c r="E37" t="n">
-        <v>3.031514508201206</v>
+        <v>3.025385277742862</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.684044517758567</v>
+        <v>-1.678322171243078</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6662107903167221</v>
+        <v>0.664063828235268</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.685617048492621</v>
       </c>
       <c r="E38" t="n">
-        <v>2.797281574722208</v>
+        <v>2.790957165892822</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.615934349351204</v>
+        <v>-1.610064045038313</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5861010871381237</v>
+        <v>0.583705430035504</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.558460765029531</v>
       </c>
       <c r="E39" t="n">
-        <v>2.548898209342717</v>
+        <v>2.542323531473044</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.565295006180718</v>
+        <v>-1.559365676150779</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5282181079714122</v>
+        <v>0.5262427139741799</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.433688797355361</v>
       </c>
       <c r="E40" t="n">
-        <v>2.302904204989361</v>
+        <v>2.296496373146546</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.495294440808674</v>
+        <v>-1.490031707876605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5010096134406085</v>
+        <v>0.4991806032216571</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.313424502540413</v>
       </c>
       <c r="E41" t="n">
-        <v>2.101401425118689</v>
+        <v>2.094729158063496</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.471948589201542</v>
+        <v>-1.46691251502294</v>
       </c>
       <c r="G41" t="n">
-        <v>0.427888555160585</v>
+        <v>0.4256707622186724</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.198002551817406</v>
       </c>
       <c r="E42" t="n">
-        <v>1.896800975617298</v>
+        <v>1.890471844730548</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.436778705955199</v>
+        <v>-1.431124829271487</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4114872759166319</v>
+        <v>0.409729096558139</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.089641327855645</v>
       </c>
       <c r="E43" t="n">
-        <v>1.751681134690739</v>
+        <v>1.745860411980169</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.401907099332343</v>
+        <v>-1.396527101975737</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3662578364660566</v>
+        <v>0.3643737355778597</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9881386238332496</v>
       </c>
       <c r="E44" t="n">
-        <v>1.516566750503812</v>
+        <v>1.510678344971026</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.361851460733483</v>
+        <v>-1.356502156749743</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3131661715045844</v>
+        <v>0.3113875298975146</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8932786054322969</v>
       </c>
       <c r="E45" t="n">
-        <v>1.318111271651979</v>
+        <v>1.312232310233921</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.30718577665071</v>
+        <v>-1.30240469356976</v>
       </c>
       <c r="G45" t="n">
-        <v>0.296151024803324</v>
+        <v>0.2946525585998457</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8062716939435787</v>
       </c>
       <c r="E46" t="n">
-        <v>1.15860332193761</v>
+        <v>1.152906946737623</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.26217984791536</v>
+        <v>-1.257004473044523</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2732065480721239</v>
+        <v>0.2719520548324472</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7279170183301632</v>
       </c>
       <c r="E47" t="n">
-        <v>1.011519105147667</v>
+        <v>1.006353174391558</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.183911747108683</v>
+        <v>-1.179009464555392</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2441186747104871</v>
+        <v>0.2430955622816417</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.65773263744731</v>
       </c>
       <c r="E48" t="n">
-        <v>0.86364315673971</v>
+        <v>0.8583623225877463</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.16517462348872</v>
+        <v>-1.160347893853251</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2046249609379316</v>
+        <v>0.2039685949643492</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5942290371329558</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7333804822991077</v>
+        <v>0.728513615176046</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.084096898550521</v>
+        <v>-1.079030130999054</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1649549570237903</v>
+        <v>0.1643316454517553</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5374529133306086</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6003129057843476</v>
+        <v>0.5955577940188982</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.026790797391766</v>
+        <v>-1.021703567591723</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1223494074484233</v>
+        <v>0.1217355399911161</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4856758069118935</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4823748010635296</v>
+        <v>0.4776196892980803</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9654142827853281</v>
+        <v>-0.9606056543697545</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1019627117893368</v>
+        <v>0.1014417114601863</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4377440921411976</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3633663633402273</v>
+        <v>0.3588552245385795</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9389959458534174</v>
+        <v>-0.9340913022714444</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05994584536533627</v>
+        <v>0.05943901120827745</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3921892404936551</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2039103562568611</v>
+        <v>0.1986200779901695</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9199235561606171</v>
+        <v>-0.9154572769039263</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02268566472590639</v>
+        <v>0.02215049822466415</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3487796371698969</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1007160886452667</v>
+        <v>0.09572644803074351</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8725495156572696</v>
+        <v>-0.8680753663049724</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01402518324018955</v>
+        <v>-0.014823210934689</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3066864573972264</v>
       </c>
       <c r="E55" t="n">
-        <v>0.005656351852554247</v>
+        <v>0.0008508714752232474</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8458289670540691</v>
+        <v>-0.8410494579922395</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0422992887161138</v>
+        <v>-0.04281399296877914</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2648706501610605</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.0914763681229112</v>
+        <v>-0.09648961902425389</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8439330610224623</v>
+        <v>-0.8391779492570131</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0482396368799026</v>
+        <v>-0.04848518386282551</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.223896861416492</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2252097547259815</v>
+        <v>-0.2304559604572767</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8319256561556201</v>
+        <v>-0.8272232740307343</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09004086268428498</v>
+        <v>-0.09053510468837339</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1838401283343122</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3134193603027934</v>
+        <v>-0.3183523362289497</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7814098734861564</v>
+        <v>-0.7758992325424827</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1219541003686564</v>
+        <v>-0.1227064815086381</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1442918389785589</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4339640406884853</v>
+        <v>-0.4392322826874787</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8345731563176478</v>
+        <v>-0.8295481002728954</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1490854679625164</v>
+        <v>-0.1497040574771875</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1047261915261709</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4947227527898131</v>
+        <v>-0.4999736805784722</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8065957534460888</v>
+        <v>-0.8011402031716606</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1674904735478853</v>
+        <v>-0.1680051778005506</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.06548674887732936</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5945533415391879</v>
+        <v>-0.5999994476988884</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8258853577776287</v>
+        <v>-0.8206013755874223</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2003638628962502</v>
+        <v>-0.2010296729845604</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.02661483360253898</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6836207875371086</v>
+        <v>-0.6891959632647556</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8675968644920969</v>
+        <v>-0.8622656617282515</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2254395615176914</v>
+        <v>-0.2259227853879308</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.0118857444532187</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7674971184729797</v>
+        <v>-0.7728440614280381</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8689056613914584</v>
+        <v>-0.8635484873121115</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2390815852420045</v>
+        <v>-0.239686008584584</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.04935184519108587</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8173337118916021</v>
+        <v>-0.8228774072368231</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8767655258736734</v>
+        <v>-0.871468164520936</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.26607443915319</v>
+        <v>-0.2667685815856836</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.08454331203363478</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8948974391414967</v>
+        <v>-0.9001129514999265</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8795153372785858</v>
+        <v>-0.8740157144687611</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2779551354807676</v>
+        <v>-0.2784131750450661</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1161617956381876</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9232085340667715</v>
+        <v>-0.9285066824290696</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8902761190013579</v>
+        <v>-0.8848551971475983</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2923227820200003</v>
+        <v>-0.2933962630607273</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1429687191491785</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9933003925478519</v>
+        <v>-0.9985631254799207</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8656143874088187</v>
+        <v>-0.8600014352222605</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2859810589802798</v>
+        <v>-0.2867302920820189</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1629353587682434</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.01440326690713</v>
+        <v>-1.019149721567412</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9208089419163487</v>
+        <v>-0.9152377012365048</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3074223474506377</v>
+        <v>-0.308360462846933</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1749357606013756</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.026493307777841</v>
+        <v>-1.031252354591093</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9015405868429462</v>
+        <v>-0.8957600016199695</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3245870259684218</v>
+        <v>-0.3254149600262259</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1780626409283766</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.030229242162248</v>
+        <v>-1.034693947399817</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9354244964671862</v>
+        <v>-0.9297021499516975</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3243115726221941</v>
+        <v>-0.3251883012727586</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1719336128386616</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9966554143049042</v>
+        <v>-1.000890312750764</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9794458762421632</v>
+        <v>-0.9735692758527871</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3206834585475961</v>
+        <v>-0.3214972264333085</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1565410275194187</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9333955858198296</v>
+        <v>-0.937313319412747</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.037176962563669</v>
+        <v>-1.0317922431497</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2939991123841855</v>
+        <v>-0.2944980764456378</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1326387381380646</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.863347012864585</v>
+        <v>-0.8671136406218576</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.07432932289329</v>
+        <v>-1.069492362133533</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2979011057858899</v>
+        <v>-0.2984472904209812</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1014112337038615</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8046644319842529</v>
+        <v>-0.8081571804144191</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.119587094688049</v>
+        <v>-1.114865037324146</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2947310312755903</v>
+        <v>-0.2952095330884657</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.06463117670176503</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6812392966065807</v>
+        <v>-0.6841795643251704</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.160669780763557</v>
+        <v>-1.156101190263982</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2633277757865203</v>
+        <v>-0.2638771084598542</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.02456366648095016</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5380775354669193</v>
+        <v>-0.5407785522790712</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.223158339879195</v>
+        <v>-1.218876220859696</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2333553036787126</v>
+        <v>-0.2338149172621324</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.01734249163261894</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.417583223693109</v>
+        <v>-0.4200355454840954</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.22223360364543</v>
+        <v>-1.217990048094404</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1955898629013452</v>
+        <v>-0.1960258661979455</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.05947341443811847</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2827165433227022</v>
+        <v>-0.2849327622454935</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.255555588443366</v>
+        <v>-1.251353744399054</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1742020910811115</v>
+        <v>-0.1747640159074158</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.100239665972468</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1350420693622716</v>
+        <v>-0.1371197746023885</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.276993728875481</v>
+        <v>-1.273263303557999</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.137755678327394</v>
+        <v>-0.1381192767444145</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1384541732687306</v>
       </c>
       <c r="E80" t="n">
-        <v>0.006375678590988662</v>
+        <v>0.004217698375685418</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.263512255101541</v>
+        <v>-1.259824328300333</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1107958788177558</v>
+        <v>-0.1111925316363236</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1730327477926162</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1596080140687319</v>
+        <v>0.1575192906947659</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.303294014373295</v>
+        <v>-1.299935844577999</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.09184941065465946</v>
+        <v>-0.09237828107941649</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.203526051673443</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2708470934092941</v>
+        <v>0.2686403186012306</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.307432897652755</v>
+        <v>-1.304392679719962</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.0200914529336824</v>
+        <v>-0.01997969757607005</v>
       </c>
     </row>
     <row r="83">
@@ -2342,10 +2342,10 @@
         <v>0.2286368813900821</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4324626547270848</v>
+        <v>0.4299426501138824</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.286112021645176</v>
+        <v>-1.28322448356715</v>
       </c>
       <c r="G83" t="n">
         <v>-0.007442635274910077</v>
@@ -2365,13 +2365,13 @@
         <v>0.2478085807593963</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5655318052609662</v>
+        <v>0.5628024561046309</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.28689116111022</v>
+        <v>-1.284497078026722</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0732919534948448</v>
+        <v>0.07408368511285905</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2596888119170608</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7035213395680336</v>
+        <v>0.7009855947636183</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.235059498455349</v>
+        <v>-1.2326764335057</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1132106524301515</v>
+        <v>0.114202284476571</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2632312517363904</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8895562335336833</v>
+        <v>0.8868914191613212</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.195277739183595</v>
+        <v>-1.193249615545799</v>
       </c>
       <c r="G86" t="n">
-        <v>0.157352444667908</v>
+        <v>0.158320466427508</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2574239940749737</v>
       </c>
       <c r="E87" t="n">
-        <v>1.012150286815309</v>
+        <v>1.009798702248085</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.061533334446676</v>
+        <v>-1.05952960810526</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1878380470092598</v>
+        <v>0.1890925402489364</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2404233707280954</v>
       </c>
       <c r="E88" t="n">
-        <v>1.147215293594999</v>
+        <v>1.14524304763601</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9472469540872757</v>
+        <v>-0.9452998924342267</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2195057377107083</v>
+        <v>0.2206154211912253</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2112923466682678</v>
       </c>
       <c r="E89" t="n">
-        <v>1.251890713199738</v>
+        <v>1.249665050162219</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8623892222292736</v>
+        <v>-0.860668819329692</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2314226364780758</v>
+        <v>0.2325842625895957</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.169054762839504</v>
       </c>
       <c r="E90" t="n">
-        <v>1.329311991719155</v>
+        <v>1.327292525186526</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7460621260791069</v>
+        <v>-0.7449036480058296</v>
       </c>
       <c r="G90" t="n">
-        <v>0.198738129424267</v>
+        <v>0.1993944953978494</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1136978002440324</v>
       </c>
       <c r="E91" t="n">
-        <v>1.320658034590243</v>
+        <v>1.318605513656067</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6054849043366212</v>
+        <v>-0.6041186557393322</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1937358966567734</v>
+        <v>0.1946929002825243</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04633529536222874</v>
       </c>
       <c r="E92" t="n">
-        <v>1.306842868762587</v>
+        <v>1.305119317824763</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.473866999432579</v>
+        <v>-0.4727919443727306</v>
       </c>
       <c r="G92" t="n">
-        <v>0.168842784253403</v>
+        <v>0.1694094311370713</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.02986836865232424</v>
       </c>
       <c r="E93" t="n">
-        <v>1.276147921878103</v>
+        <v>1.27466834390408</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3382337717500987</v>
+        <v>-0.3374388920938419</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1619816349036534</v>
+        <v>0.1626726292979044</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1096107307488293</v>
       </c>
       <c r="E94" t="n">
-        <v>1.19523389492852</v>
+        <v>1.193496177818604</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1891190702936781</v>
+        <v>-0.1884611303009744</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1433751548707579</v>
+        <v>0.1439953184045504</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1872716837553338</v>
       </c>
       <c r="E95" t="n">
-        <v>1.162590312371864</v>
+        <v>1.160847873204585</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.0965179513684373</v>
+        <v>-0.09633379113124511</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1252046781344628</v>
+        <v>0.1260766847276634</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.25846210029599</v>
       </c>
       <c r="E96" t="n">
-        <v>1.121794884785993</v>
+        <v>1.120603352311169</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01019267496014283</v>
+        <v>0.01030443031775518</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05723223640021388</v>
+        <v>0.05767138773505678</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3198206278379188</v>
       </c>
       <c r="E97" t="n">
-        <v>1.0270247675116</v>
+        <v>1.02563333460837</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06613961060765447</v>
+        <v>0.06630330859626975</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03259411509449422</v>
+        <v>0.03297187968360638</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3698859853351785</v>
       </c>
       <c r="E98" t="n">
-        <v>1.002396090320608</v>
+        <v>1.001426494541887</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1001399976468706</v>
+        <v>0.1002407348706339</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.00685710016178622</v>
+        <v>-0.006473039496188853</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4100983120279211</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9777296366707052</v>
+        <v>0.9771535456723092</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1652524466377162</v>
+        <v>0.1655719725193402</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02457583341026806</v>
+        <v>-0.02406270317672404</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4443812317139755</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8872439994444926</v>
+        <v>0.8867481834212828</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1540627447043896</v>
+        <v>0.1545286543642946</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03534999429557127</v>
+        <v>-0.03493760128579049</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4733238566425368</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8057349932670578</v>
+        <v>0.8051195517906292</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1418924288584927</v>
+        <v>0.1423347282315782</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06422065301846849</v>
+        <v>-0.06389010900299534</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5009960919272309</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6836713844293107</v>
+        <v>0.6826278097518884</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1370601901560996</v>
+        <v>0.1370507460413718</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08201651320389407</v>
+        <v>-0.08178828043130547</v>
       </c>
     </row>
   </sheetData>
